--- a/artfynd/A 17331-2019.xlsx
+++ b/artfynd/A 17331-2019.xlsx
@@ -680,14 +680,14 @@
     </row>
     <row r="2">
       <c r="A2" t="n">
-        <v>76465442</v>
+        <v>76755383</v>
       </c>
       <c r="B2" t="n">
         <v>96334</v>
       </c>
       <c r="C2" t="inlineStr">
         <is>
-          <t>Ovaliderad</t>
+          <t>Godkänd baserat på observatörens uppgifter</t>
         </is>
       </c>
       <c r="D2" t="inlineStr">
@@ -715,12 +715,12 @@
       </c>
       <c r="I2" t="inlineStr">
         <is>
-          <t>700</t>
+          <t>50</t>
         </is>
       </c>
       <c r="J2" t="inlineStr">
         <is>
-          <t>stjälkar/strån/skott</t>
+          <t>plantor/tuvor</t>
         </is>
       </c>
       <c r="K2" t="inlineStr">
@@ -736,13 +736,13 @@
         </is>
       </c>
       <c r="Q2" t="n">
-        <v>407996.4776108077</v>
+        <v>407902.9325834367</v>
       </c>
       <c r="R2" t="n">
-        <v>6285359.153831753</v>
+        <v>6285634.658014007</v>
       </c>
       <c r="S2" t="n">
-        <v>50</v>
+        <v>5</v>
       </c>
       <c r="T2" t="inlineStr">
         <is>
@@ -766,7 +766,7 @@
       </c>
       <c r="Y2" t="inlineStr">
         <is>
-          <t>2019-03-19</t>
+          <t>2019-04-02</t>
         </is>
       </c>
       <c r="Z2" t="inlineStr">
@@ -776,7 +776,7 @@
       </c>
       <c r="AA2" t="inlineStr">
         <is>
-          <t>2019-03-19</t>
+          <t>2019-04-02</t>
         </is>
       </c>
       <c r="AB2" t="inlineStr">
@@ -809,7 +809,7 @@
     </row>
     <row r="3">
       <c r="A3" t="n">
-        <v>76755383</v>
+        <v>76755459</v>
       </c>
       <c r="B3" t="n">
         <v>96334</v>
@@ -865,10 +865,10 @@
         </is>
       </c>
       <c r="Q3" t="n">
-        <v>407902.9325834367</v>
+        <v>407884.1143734636</v>
       </c>
       <c r="R3" t="n">
-        <v>6285634.658014007</v>
+        <v>6285629.58028611</v>
       </c>
       <c r="S3" t="n">
         <v>5</v>
@@ -938,7 +938,7 @@
     </row>
     <row r="4">
       <c r="A4" t="n">
-        <v>76755605</v>
+        <v>77652394</v>
       </c>
       <c r="B4" t="n">
         <v>96334</v>
@@ -973,7 +973,7 @@
       </c>
       <c r="I4" t="inlineStr">
         <is>
-          <t>35</t>
+          <t>20</t>
         </is>
       </c>
       <c r="J4" t="inlineStr">
@@ -990,14 +990,14 @@
       <c r="N4" t="inlineStr"/>
       <c r="P4" t="inlineStr">
         <is>
-          <t>skärseryd, Sm</t>
+          <t>Skärseryd, Sm</t>
         </is>
       </c>
       <c r="Q4" t="n">
-        <v>408184.548379615</v>
+        <v>407913.2409173263</v>
       </c>
       <c r="R4" t="n">
-        <v>6285530.199210035</v>
+        <v>6285653.100529519</v>
       </c>
       <c r="S4" t="n">
         <v>5</v>
@@ -1024,7 +1024,7 @@
       </c>
       <c r="Y4" t="inlineStr">
         <is>
-          <t>2019-04-02</t>
+          <t>2019-05-10</t>
         </is>
       </c>
       <c r="Z4" t="inlineStr">
@@ -1034,7 +1034,7 @@
       </c>
       <c r="AA4" t="inlineStr">
         <is>
-          <t>2019-04-02</t>
+          <t>2019-05-10</t>
         </is>
       </c>
       <c r="AB4" t="inlineStr">
@@ -1067,7 +1067,7 @@
     </row>
     <row r="5">
       <c r="A5" t="n">
-        <v>76465453</v>
+        <v>76755409</v>
       </c>
       <c r="B5" t="n">
         <v>96334</v>
@@ -1107,7 +1107,7 @@
       </c>
       <c r="J5" t="inlineStr">
         <is>
-          <t>stjälkar/strån/skott</t>
+          <t>plantor/tuvor</t>
         </is>
       </c>
       <c r="K5" t="inlineStr">
@@ -1123,13 +1123,13 @@
         </is>
       </c>
       <c r="Q5" t="n">
-        <v>408038.8439439582</v>
+        <v>407889.8787736146</v>
       </c>
       <c r="R5" t="n">
-        <v>6285409.292779635</v>
+        <v>6285641.533556095</v>
       </c>
       <c r="S5" t="n">
-        <v>10</v>
+        <v>5</v>
       </c>
       <c r="T5" t="inlineStr">
         <is>
@@ -1153,7 +1153,7 @@
       </c>
       <c r="Y5" t="inlineStr">
         <is>
-          <t>2019-03-19</t>
+          <t>2019-04-02</t>
         </is>
       </c>
       <c r="Z5" t="inlineStr">
@@ -1163,7 +1163,7 @@
       </c>
       <c r="AA5" t="inlineStr">
         <is>
-          <t>2019-03-19</t>
+          <t>2019-04-02</t>
         </is>
       </c>
       <c r="AB5" t="inlineStr">
@@ -1196,7 +1196,7 @@
     </row>
     <row r="6">
       <c r="A6" t="n">
-        <v>76755459</v>
+        <v>107045898</v>
       </c>
       <c r="B6" t="n">
         <v>96334</v>
@@ -1231,7 +1231,7 @@
       </c>
       <c r="I6" t="inlineStr">
         <is>
-          <t>50</t>
+          <t>170</t>
         </is>
       </c>
       <c r="J6" t="inlineStr">
@@ -1244,21 +1244,19 @@
           <t>fullt utvecklade blad</t>
         </is>
       </c>
-      <c r="L6" t="inlineStr"/>
-      <c r="N6" t="inlineStr"/>
       <c r="P6" t="inlineStr">
         <is>
-          <t>skärseryd, Sm</t>
+          <t>Skärseryd, Sm</t>
         </is>
       </c>
       <c r="Q6" t="n">
-        <v>407884.1143734636</v>
+        <v>407899.1432886171</v>
       </c>
       <c r="R6" t="n">
-        <v>6285629.58028611</v>
+        <v>6285637.486604357</v>
       </c>
       <c r="S6" t="n">
-        <v>5</v>
+        <v>30</v>
       </c>
       <c r="T6" t="inlineStr">
         <is>
@@ -1280,6 +1278,11 @@
           <t>Torpa</t>
         </is>
       </c>
+      <c r="X6" t="inlineStr">
+        <is>
+          <t>G-Lju-1513</t>
+        </is>
+      </c>
       <c r="Y6" t="inlineStr">
         <is>
           <t>2019-04-02</t>
@@ -1306,14 +1309,13 @@
       <c r="AE6" t="b">
         <v>0</v>
       </c>
-      <c r="AF6" t="inlineStr"/>
       <c r="AG6" t="b">
         <v>0</v>
       </c>
       <c r="AT6" t="inlineStr"/>
       <c r="AW6" t="inlineStr">
         <is>
-          <t>per taube</t>
+          <t>Sofia Lund</t>
         </is>
       </c>
       <c r="AX6" t="inlineStr">
@@ -1321,11 +1323,15 @@
           <t>per taube</t>
         </is>
       </c>
-      <c r="AY6" t="inlineStr"/>
+      <c r="AY6" t="inlineStr">
+        <is>
+          <t>Floraväkteri Sverige</t>
+        </is>
+      </c>
     </row>
     <row r="7">
       <c r="A7" t="n">
-        <v>76755632</v>
+        <v>76755605</v>
       </c>
       <c r="B7" t="n">
         <v>96334</v>
@@ -1360,7 +1366,7 @@
       </c>
       <c r="I7" t="inlineStr">
         <is>
-          <t>20</t>
+          <t>35</t>
         </is>
       </c>
       <c r="J7" t="inlineStr">
@@ -1381,10 +1387,10 @@
         </is>
       </c>
       <c r="Q7" t="n">
-        <v>408158.8116796608</v>
+        <v>408184.548379615</v>
       </c>
       <c r="R7" t="n">
-        <v>6285560.962556749</v>
+        <v>6285530.199210035</v>
       </c>
       <c r="S7" t="n">
         <v>5</v>
@@ -1454,7 +1460,7 @@
     </row>
     <row r="8">
       <c r="A8" t="n">
-        <v>76465601</v>
+        <v>76755632</v>
       </c>
       <c r="B8" t="n">
         <v>96334</v>
@@ -1489,12 +1495,12 @@
       </c>
       <c r="I8" t="inlineStr">
         <is>
-          <t>15</t>
+          <t>20</t>
         </is>
       </c>
       <c r="J8" t="inlineStr">
         <is>
-          <t>stjälkar/strån/skott</t>
+          <t>plantor/tuvor</t>
         </is>
       </c>
       <c r="K8" t="inlineStr">
@@ -1510,10 +1516,10 @@
         </is>
       </c>
       <c r="Q8" t="n">
-        <v>408125.1816931197</v>
+        <v>408158.8116796608</v>
       </c>
       <c r="R8" t="n">
-        <v>6285457.37027449</v>
+        <v>6285560.962556749</v>
       </c>
       <c r="S8" t="n">
         <v>5</v>
@@ -1540,7 +1546,7 @@
       </c>
       <c r="Y8" t="inlineStr">
         <is>
-          <t>2019-03-19</t>
+          <t>2019-04-02</t>
         </is>
       </c>
       <c r="Z8" t="inlineStr">
@@ -1550,7 +1556,7 @@
       </c>
       <c r="AA8" t="inlineStr">
         <is>
-          <t>2019-03-19</t>
+          <t>2019-04-02</t>
         </is>
       </c>
       <c r="AB8" t="inlineStr">
@@ -1583,7 +1589,7 @@
     </row>
     <row r="9">
       <c r="A9" t="n">
-        <v>76465524</v>
+        <v>76465597</v>
       </c>
       <c r="B9" t="n">
         <v>96334</v>
@@ -1618,7 +1624,7 @@
       </c>
       <c r="I9" t="inlineStr">
         <is>
-          <t>25</t>
+          <t>150</t>
         </is>
       </c>
       <c r="J9" t="inlineStr">
@@ -1639,10 +1645,10 @@
         </is>
       </c>
       <c r="Q9" t="n">
-        <v>408058.8086462545</v>
+        <v>408141.4843590338</v>
       </c>
       <c r="R9" t="n">
-        <v>6285491.770240182</v>
+        <v>6285523.454436843</v>
       </c>
       <c r="S9" t="n">
         <v>5</v>
@@ -1712,14 +1718,14 @@
     </row>
     <row r="10">
       <c r="A10" t="n">
-        <v>76465460</v>
+        <v>76465442</v>
       </c>
       <c r="B10" t="n">
         <v>96334</v>
       </c>
       <c r="C10" t="inlineStr">
         <is>
-          <t>Godkänd baserat på observatörens uppgifter</t>
+          <t>Ovaliderad</t>
         </is>
       </c>
       <c r="D10" t="inlineStr">
@@ -1747,7 +1753,7 @@
       </c>
       <c r="I10" t="inlineStr">
         <is>
-          <t>100</t>
+          <t>700</t>
         </is>
       </c>
       <c r="J10" t="inlineStr">
@@ -1768,13 +1774,13 @@
         </is>
       </c>
       <c r="Q10" t="n">
-        <v>408044.7251403119</v>
+        <v>407996.4776108077</v>
       </c>
       <c r="R10" t="n">
-        <v>6285401.476327997</v>
+        <v>6285359.153831753</v>
       </c>
       <c r="S10" t="n">
-        <v>5</v>
+        <v>50</v>
       </c>
       <c r="T10" t="inlineStr">
         <is>
@@ -1841,7 +1847,7 @@
     </row>
     <row r="11">
       <c r="A11" t="n">
-        <v>76465717</v>
+        <v>76465453</v>
       </c>
       <c r="B11" t="n">
         <v>96334</v>
@@ -1876,7 +1882,7 @@
       </c>
       <c r="I11" t="inlineStr">
         <is>
-          <t>20</t>
+          <t>50</t>
         </is>
       </c>
       <c r="J11" t="inlineStr">
@@ -1897,13 +1903,13 @@
         </is>
       </c>
       <c r="Q11" t="n">
-        <v>408145.906391738</v>
+        <v>408038.8439439582</v>
       </c>
       <c r="R11" t="n">
-        <v>6285398.711090717</v>
+        <v>6285409.292779635</v>
       </c>
       <c r="S11" t="n">
-        <v>5</v>
+        <v>10</v>
       </c>
       <c r="T11" t="inlineStr">
         <is>
@@ -1970,7 +1976,7 @@
     </row>
     <row r="12">
       <c r="A12" t="n">
-        <v>77652394</v>
+        <v>76465601</v>
       </c>
       <c r="B12" t="n">
         <v>96334</v>
@@ -2005,12 +2011,12 @@
       </c>
       <c r="I12" t="inlineStr">
         <is>
-          <t>20</t>
+          <t>15</t>
         </is>
       </c>
       <c r="J12" t="inlineStr">
         <is>
-          <t>plantor/tuvor</t>
+          <t>stjälkar/strån/skott</t>
         </is>
       </c>
       <c r="K12" t="inlineStr">
@@ -2022,14 +2028,14 @@
       <c r="N12" t="inlineStr"/>
       <c r="P12" t="inlineStr">
         <is>
-          <t>Skärseryd, Sm</t>
+          <t>skärseryd, Sm</t>
         </is>
       </c>
       <c r="Q12" t="n">
-        <v>407913.2409173263</v>
+        <v>408125.1816931197</v>
       </c>
       <c r="R12" t="n">
-        <v>6285653.100529519</v>
+        <v>6285457.37027449</v>
       </c>
       <c r="S12" t="n">
         <v>5</v>
@@ -2056,7 +2062,7 @@
       </c>
       <c r="Y12" t="inlineStr">
         <is>
-          <t>2019-05-10</t>
+          <t>2019-03-19</t>
         </is>
       </c>
       <c r="Z12" t="inlineStr">
@@ -2066,7 +2072,7 @@
       </c>
       <c r="AA12" t="inlineStr">
         <is>
-          <t>2019-05-10</t>
+          <t>2019-03-19</t>
         </is>
       </c>
       <c r="AB12" t="inlineStr">
@@ -2099,7 +2105,7 @@
     </row>
     <row r="13">
       <c r="A13" t="n">
-        <v>76755409</v>
+        <v>76465524</v>
       </c>
       <c r="B13" t="n">
         <v>96334</v>
@@ -2134,12 +2140,12 @@
       </c>
       <c r="I13" t="inlineStr">
         <is>
-          <t>50</t>
+          <t>25</t>
         </is>
       </c>
       <c r="J13" t="inlineStr">
         <is>
-          <t>plantor/tuvor</t>
+          <t>stjälkar/strån/skott</t>
         </is>
       </c>
       <c r="K13" t="inlineStr">
@@ -2155,10 +2161,10 @@
         </is>
       </c>
       <c r="Q13" t="n">
-        <v>407889.8787736146</v>
+        <v>408058.8086462545</v>
       </c>
       <c r="R13" t="n">
-        <v>6285641.533556095</v>
+        <v>6285491.770240182</v>
       </c>
       <c r="S13" t="n">
         <v>5</v>
@@ -2185,7 +2191,7 @@
       </c>
       <c r="Y13" t="inlineStr">
         <is>
-          <t>2019-04-02</t>
+          <t>2019-03-19</t>
         </is>
       </c>
       <c r="Z13" t="inlineStr">
@@ -2195,7 +2201,7 @@
       </c>
       <c r="AA13" t="inlineStr">
         <is>
-          <t>2019-04-02</t>
+          <t>2019-03-19</t>
         </is>
       </c>
       <c r="AB13" t="inlineStr">
@@ -2228,7 +2234,7 @@
     </row>
     <row r="14">
       <c r="A14" t="n">
-        <v>107045898</v>
+        <v>76465460</v>
       </c>
       <c r="B14" t="n">
         <v>96334</v>
@@ -2263,12 +2269,12 @@
       </c>
       <c r="I14" t="inlineStr">
         <is>
-          <t>170</t>
+          <t>100</t>
         </is>
       </c>
       <c r="J14" t="inlineStr">
         <is>
-          <t>plantor/tuvor</t>
+          <t>stjälkar/strån/skott</t>
         </is>
       </c>
       <c r="K14" t="inlineStr">
@@ -2276,19 +2282,21 @@
           <t>fullt utvecklade blad</t>
         </is>
       </c>
+      <c r="L14" t="inlineStr"/>
+      <c r="N14" t="inlineStr"/>
       <c r="P14" t="inlineStr">
         <is>
-          <t>Skärseryd, Sm</t>
+          <t>skärseryd, Sm</t>
         </is>
       </c>
       <c r="Q14" t="n">
-        <v>407899.1432886171</v>
+        <v>408044.7251403119</v>
       </c>
       <c r="R14" t="n">
-        <v>6285637.486604357</v>
+        <v>6285401.476327997</v>
       </c>
       <c r="S14" t="n">
-        <v>30</v>
+        <v>5</v>
       </c>
       <c r="T14" t="inlineStr">
         <is>
@@ -2310,14 +2318,9 @@
           <t>Torpa</t>
         </is>
       </c>
-      <c r="X14" t="inlineStr">
-        <is>
-          <t>G-Lju-1513</t>
-        </is>
-      </c>
       <c r="Y14" t="inlineStr">
         <is>
-          <t>2019-04-02</t>
+          <t>2019-03-19</t>
         </is>
       </c>
       <c r="Z14" t="inlineStr">
@@ -2327,7 +2330,7 @@
       </c>
       <c r="AA14" t="inlineStr">
         <is>
-          <t>2019-04-02</t>
+          <t>2019-03-19</t>
         </is>
       </c>
       <c r="AB14" t="inlineStr">
@@ -2341,13 +2344,14 @@
       <c r="AE14" t="b">
         <v>0</v>
       </c>
+      <c r="AF14" t="inlineStr"/>
       <c r="AG14" t="b">
         <v>0</v>
       </c>
       <c r="AT14" t="inlineStr"/>
       <c r="AW14" t="inlineStr">
         <is>
-          <t>Sofia Lund</t>
+          <t>per taube</t>
         </is>
       </c>
       <c r="AX14" t="inlineStr">
@@ -2355,15 +2359,11 @@
           <t>per taube</t>
         </is>
       </c>
-      <c r="AY14" t="inlineStr">
-        <is>
-          <t>Floraväkteri Sverige</t>
-        </is>
-      </c>
+      <c r="AY14" t="inlineStr"/>
     </row>
     <row r="15">
       <c r="A15" t="n">
-        <v>76465590</v>
+        <v>76465717</v>
       </c>
       <c r="B15" t="n">
         <v>96334</v>
@@ -2398,7 +2398,7 @@
       </c>
       <c r="I15" t="inlineStr">
         <is>
-          <t>150</t>
+          <t>20</t>
         </is>
       </c>
       <c r="J15" t="inlineStr">
@@ -2419,10 +2419,10 @@
         </is>
       </c>
       <c r="Q15" t="n">
-        <v>408046.0822250342</v>
+        <v>408145.906391738</v>
       </c>
       <c r="R15" t="n">
-        <v>6285538.722391712</v>
+        <v>6285398.711090717</v>
       </c>
       <c r="S15" t="n">
         <v>5</v>
@@ -2492,7 +2492,7 @@
     </row>
     <row r="16">
       <c r="A16" t="n">
-        <v>76465614</v>
+        <v>76465590</v>
       </c>
       <c r="B16" t="n">
         <v>96334</v>
@@ -2527,7 +2527,7 @@
       </c>
       <c r="I16" t="inlineStr">
         <is>
-          <t>100</t>
+          <t>150</t>
         </is>
       </c>
       <c r="J16" t="inlineStr">
@@ -2548,10 +2548,10 @@
         </is>
       </c>
       <c r="Q16" t="n">
-        <v>408198.4315054848</v>
+        <v>408046.0822250342</v>
       </c>
       <c r="R16" t="n">
-        <v>6285435.450150408</v>
+        <v>6285538.722391712</v>
       </c>
       <c r="S16" t="n">
         <v>5</v>
@@ -2621,7 +2621,7 @@
     </row>
     <row r="17">
       <c r="A17" t="n">
-        <v>76465597</v>
+        <v>76465614</v>
       </c>
       <c r="B17" t="n">
         <v>96334</v>
@@ -2656,7 +2656,7 @@
       </c>
       <c r="I17" t="inlineStr">
         <is>
-          <t>150</t>
+          <t>100</t>
         </is>
       </c>
       <c r="J17" t="inlineStr">
@@ -2677,10 +2677,10 @@
         </is>
       </c>
       <c r="Q17" t="n">
-        <v>408141.4843590338</v>
+        <v>408198.4315054848</v>
       </c>
       <c r="R17" t="n">
-        <v>6285523.454436843</v>
+        <v>6285435.450150408</v>
       </c>
       <c r="S17" t="n">
         <v>5</v>

--- a/artfynd/A 17331-2019.xlsx
+++ b/artfynd/A 17331-2019.xlsx
@@ -680,14 +680,14 @@
     </row>
     <row r="2">
       <c r="A2" t="n">
-        <v>76755383</v>
+        <v>76465442</v>
       </c>
       <c r="B2" t="n">
         <v>96334</v>
       </c>
       <c r="C2" t="inlineStr">
         <is>
-          <t>Godkänd baserat på observatörens uppgifter</t>
+          <t>Ovaliderad</t>
         </is>
       </c>
       <c r="D2" t="inlineStr">
@@ -715,12 +715,12 @@
       </c>
       <c r="I2" t="inlineStr">
         <is>
-          <t>50</t>
+          <t>700</t>
         </is>
       </c>
       <c r="J2" t="inlineStr">
         <is>
-          <t>plantor/tuvor</t>
+          <t>stjälkar/strån/skott</t>
         </is>
       </c>
       <c r="K2" t="inlineStr">
@@ -736,13 +736,13 @@
         </is>
       </c>
       <c r="Q2" t="n">
-        <v>407902.9325834367</v>
+        <v>407996.4776108077</v>
       </c>
       <c r="R2" t="n">
-        <v>6285634.658014007</v>
+        <v>6285359.153831753</v>
       </c>
       <c r="S2" t="n">
-        <v>5</v>
+        <v>50</v>
       </c>
       <c r="T2" t="inlineStr">
         <is>
@@ -766,7 +766,7 @@
       </c>
       <c r="Y2" t="inlineStr">
         <is>
-          <t>2019-04-02</t>
+          <t>2019-03-19</t>
         </is>
       </c>
       <c r="Z2" t="inlineStr">
@@ -776,7 +776,7 @@
       </c>
       <c r="AA2" t="inlineStr">
         <is>
-          <t>2019-04-02</t>
+          <t>2019-03-19</t>
         </is>
       </c>
       <c r="AB2" t="inlineStr">
@@ -809,7 +809,7 @@
     </row>
     <row r="3">
       <c r="A3" t="n">
-        <v>76755459</v>
+        <v>76755383</v>
       </c>
       <c r="B3" t="n">
         <v>96334</v>
@@ -865,10 +865,10 @@
         </is>
       </c>
       <c r="Q3" t="n">
-        <v>407884.1143734636</v>
+        <v>407902.9325834367</v>
       </c>
       <c r="R3" t="n">
-        <v>6285629.58028611</v>
+        <v>6285634.658014007</v>
       </c>
       <c r="S3" t="n">
         <v>5</v>
@@ -938,7 +938,7 @@
     </row>
     <row r="4">
       <c r="A4" t="n">
-        <v>77652394</v>
+        <v>76755605</v>
       </c>
       <c r="B4" t="n">
         <v>96334</v>
@@ -973,7 +973,7 @@
       </c>
       <c r="I4" t="inlineStr">
         <is>
-          <t>20</t>
+          <t>35</t>
         </is>
       </c>
       <c r="J4" t="inlineStr">
@@ -990,14 +990,14 @@
       <c r="N4" t="inlineStr"/>
       <c r="P4" t="inlineStr">
         <is>
-          <t>Skärseryd, Sm</t>
+          <t>skärseryd, Sm</t>
         </is>
       </c>
       <c r="Q4" t="n">
-        <v>407913.2409173263</v>
+        <v>408184.548379615</v>
       </c>
       <c r="R4" t="n">
-        <v>6285653.100529519</v>
+        <v>6285530.199210035</v>
       </c>
       <c r="S4" t="n">
         <v>5</v>
@@ -1024,7 +1024,7 @@
       </c>
       <c r="Y4" t="inlineStr">
         <is>
-          <t>2019-05-10</t>
+          <t>2019-04-02</t>
         </is>
       </c>
       <c r="Z4" t="inlineStr">
@@ -1034,7 +1034,7 @@
       </c>
       <c r="AA4" t="inlineStr">
         <is>
-          <t>2019-05-10</t>
+          <t>2019-04-02</t>
         </is>
       </c>
       <c r="AB4" t="inlineStr">
@@ -1067,7 +1067,7 @@
     </row>
     <row r="5">
       <c r="A5" t="n">
-        <v>76755409</v>
+        <v>76465453</v>
       </c>
       <c r="B5" t="n">
         <v>96334</v>
@@ -1107,7 +1107,7 @@
       </c>
       <c r="J5" t="inlineStr">
         <is>
-          <t>plantor/tuvor</t>
+          <t>stjälkar/strån/skott</t>
         </is>
       </c>
       <c r="K5" t="inlineStr">
@@ -1123,13 +1123,13 @@
         </is>
       </c>
       <c r="Q5" t="n">
-        <v>407889.8787736146</v>
+        <v>408038.8439439582</v>
       </c>
       <c r="R5" t="n">
-        <v>6285641.533556095</v>
+        <v>6285409.292779635</v>
       </c>
       <c r="S5" t="n">
-        <v>5</v>
+        <v>10</v>
       </c>
       <c r="T5" t="inlineStr">
         <is>
@@ -1153,7 +1153,7 @@
       </c>
       <c r="Y5" t="inlineStr">
         <is>
-          <t>2019-04-02</t>
+          <t>2019-03-19</t>
         </is>
       </c>
       <c r="Z5" t="inlineStr">
@@ -1163,7 +1163,7 @@
       </c>
       <c r="AA5" t="inlineStr">
         <is>
-          <t>2019-04-02</t>
+          <t>2019-03-19</t>
         </is>
       </c>
       <c r="AB5" t="inlineStr">
@@ -1196,7 +1196,7 @@
     </row>
     <row r="6">
       <c r="A6" t="n">
-        <v>107045898</v>
+        <v>76755459</v>
       </c>
       <c r="B6" t="n">
         <v>96334</v>
@@ -1231,7 +1231,7 @@
       </c>
       <c r="I6" t="inlineStr">
         <is>
-          <t>170</t>
+          <t>50</t>
         </is>
       </c>
       <c r="J6" t="inlineStr">
@@ -1244,19 +1244,21 @@
           <t>fullt utvecklade blad</t>
         </is>
       </c>
+      <c r="L6" t="inlineStr"/>
+      <c r="N6" t="inlineStr"/>
       <c r="P6" t="inlineStr">
         <is>
-          <t>Skärseryd, Sm</t>
+          <t>skärseryd, Sm</t>
         </is>
       </c>
       <c r="Q6" t="n">
-        <v>407899.1432886171</v>
+        <v>407884.1143734636</v>
       </c>
       <c r="R6" t="n">
-        <v>6285637.486604357</v>
+        <v>6285629.58028611</v>
       </c>
       <c r="S6" t="n">
-        <v>30</v>
+        <v>5</v>
       </c>
       <c r="T6" t="inlineStr">
         <is>
@@ -1278,11 +1280,6 @@
           <t>Torpa</t>
         </is>
       </c>
-      <c r="X6" t="inlineStr">
-        <is>
-          <t>G-Lju-1513</t>
-        </is>
-      </c>
       <c r="Y6" t="inlineStr">
         <is>
           <t>2019-04-02</t>
@@ -1309,13 +1306,14 @@
       <c r="AE6" t="b">
         <v>0</v>
       </c>
+      <c r="AF6" t="inlineStr"/>
       <c r="AG6" t="b">
         <v>0</v>
       </c>
       <c r="AT6" t="inlineStr"/>
       <c r="AW6" t="inlineStr">
         <is>
-          <t>Sofia Lund</t>
+          <t>per taube</t>
         </is>
       </c>
       <c r="AX6" t="inlineStr">
@@ -1323,15 +1321,11 @@
           <t>per taube</t>
         </is>
       </c>
-      <c r="AY6" t="inlineStr">
-        <is>
-          <t>Floraväkteri Sverige</t>
-        </is>
-      </c>
+      <c r="AY6" t="inlineStr"/>
     </row>
     <row r="7">
       <c r="A7" t="n">
-        <v>76755605</v>
+        <v>76755632</v>
       </c>
       <c r="B7" t="n">
         <v>96334</v>
@@ -1366,7 +1360,7 @@
       </c>
       <c r="I7" t="inlineStr">
         <is>
-          <t>35</t>
+          <t>20</t>
         </is>
       </c>
       <c r="J7" t="inlineStr">
@@ -1387,10 +1381,10 @@
         </is>
       </c>
       <c r="Q7" t="n">
-        <v>408184.548379615</v>
+        <v>408158.8116796608</v>
       </c>
       <c r="R7" t="n">
-        <v>6285530.199210035</v>
+        <v>6285560.962556749</v>
       </c>
       <c r="S7" t="n">
         <v>5</v>
@@ -1460,7 +1454,7 @@
     </row>
     <row r="8">
       <c r="A8" t="n">
-        <v>76755632</v>
+        <v>76465601</v>
       </c>
       <c r="B8" t="n">
         <v>96334</v>
@@ -1495,12 +1489,12 @@
       </c>
       <c r="I8" t="inlineStr">
         <is>
-          <t>20</t>
+          <t>15</t>
         </is>
       </c>
       <c r="J8" t="inlineStr">
         <is>
-          <t>plantor/tuvor</t>
+          <t>stjälkar/strån/skott</t>
         </is>
       </c>
       <c r="K8" t="inlineStr">
@@ -1516,10 +1510,10 @@
         </is>
       </c>
       <c r="Q8" t="n">
-        <v>408158.8116796608</v>
+        <v>408125.1816931197</v>
       </c>
       <c r="R8" t="n">
-        <v>6285560.962556749</v>
+        <v>6285457.37027449</v>
       </c>
       <c r="S8" t="n">
         <v>5</v>
@@ -1546,7 +1540,7 @@
       </c>
       <c r="Y8" t="inlineStr">
         <is>
-          <t>2019-04-02</t>
+          <t>2019-03-19</t>
         </is>
       </c>
       <c r="Z8" t="inlineStr">
@@ -1556,7 +1550,7 @@
       </c>
       <c r="AA8" t="inlineStr">
         <is>
-          <t>2019-04-02</t>
+          <t>2019-03-19</t>
         </is>
       </c>
       <c r="AB8" t="inlineStr">
@@ -1589,7 +1583,7 @@
     </row>
     <row r="9">
       <c r="A9" t="n">
-        <v>76465597</v>
+        <v>76465524</v>
       </c>
       <c r="B9" t="n">
         <v>96334</v>
@@ -1624,7 +1618,7 @@
       </c>
       <c r="I9" t="inlineStr">
         <is>
-          <t>150</t>
+          <t>25</t>
         </is>
       </c>
       <c r="J9" t="inlineStr">
@@ -1645,10 +1639,10 @@
         </is>
       </c>
       <c r="Q9" t="n">
-        <v>408141.4843590338</v>
+        <v>408058.8086462545</v>
       </c>
       <c r="R9" t="n">
-        <v>6285523.454436843</v>
+        <v>6285491.770240182</v>
       </c>
       <c r="S9" t="n">
         <v>5</v>
@@ -1718,14 +1712,14 @@
     </row>
     <row r="10">
       <c r="A10" t="n">
-        <v>76465442</v>
+        <v>76465460</v>
       </c>
       <c r="B10" t="n">
         <v>96334</v>
       </c>
       <c r="C10" t="inlineStr">
         <is>
-          <t>Ovaliderad</t>
+          <t>Godkänd baserat på observatörens uppgifter</t>
         </is>
       </c>
       <c r="D10" t="inlineStr">
@@ -1753,7 +1747,7 @@
       </c>
       <c r="I10" t="inlineStr">
         <is>
-          <t>700</t>
+          <t>100</t>
         </is>
       </c>
       <c r="J10" t="inlineStr">
@@ -1774,13 +1768,13 @@
         </is>
       </c>
       <c r="Q10" t="n">
-        <v>407996.4776108077</v>
+        <v>408044.7251403119</v>
       </c>
       <c r="R10" t="n">
-        <v>6285359.153831753</v>
+        <v>6285401.476327997</v>
       </c>
       <c r="S10" t="n">
-        <v>50</v>
+        <v>5</v>
       </c>
       <c r="T10" t="inlineStr">
         <is>
@@ -1847,7 +1841,7 @@
     </row>
     <row r="11">
       <c r="A11" t="n">
-        <v>76465453</v>
+        <v>76465717</v>
       </c>
       <c r="B11" t="n">
         <v>96334</v>
@@ -1882,7 +1876,7 @@
       </c>
       <c r="I11" t="inlineStr">
         <is>
-          <t>50</t>
+          <t>20</t>
         </is>
       </c>
       <c r="J11" t="inlineStr">
@@ -1903,13 +1897,13 @@
         </is>
       </c>
       <c r="Q11" t="n">
-        <v>408038.8439439582</v>
+        <v>408145.906391738</v>
       </c>
       <c r="R11" t="n">
-        <v>6285409.292779635</v>
+        <v>6285398.711090717</v>
       </c>
       <c r="S11" t="n">
-        <v>10</v>
+        <v>5</v>
       </c>
       <c r="T11" t="inlineStr">
         <is>
@@ -1976,7 +1970,7 @@
     </row>
     <row r="12">
       <c r="A12" t="n">
-        <v>76465601</v>
+        <v>77652394</v>
       </c>
       <c r="B12" t="n">
         <v>96334</v>
@@ -2011,12 +2005,12 @@
       </c>
       <c r="I12" t="inlineStr">
         <is>
-          <t>15</t>
+          <t>20</t>
         </is>
       </c>
       <c r="J12" t="inlineStr">
         <is>
-          <t>stjälkar/strån/skott</t>
+          <t>plantor/tuvor</t>
         </is>
       </c>
       <c r="K12" t="inlineStr">
@@ -2028,14 +2022,14 @@
       <c r="N12" t="inlineStr"/>
       <c r="P12" t="inlineStr">
         <is>
-          <t>skärseryd, Sm</t>
+          <t>Skärseryd, Sm</t>
         </is>
       </c>
       <c r="Q12" t="n">
-        <v>408125.1816931197</v>
+        <v>407913.2409173263</v>
       </c>
       <c r="R12" t="n">
-        <v>6285457.37027449</v>
+        <v>6285653.100529519</v>
       </c>
       <c r="S12" t="n">
         <v>5</v>
@@ -2062,7 +2056,7 @@
       </c>
       <c r="Y12" t="inlineStr">
         <is>
-          <t>2019-03-19</t>
+          <t>2019-05-10</t>
         </is>
       </c>
       <c r="Z12" t="inlineStr">
@@ -2072,7 +2066,7 @@
       </c>
       <c r="AA12" t="inlineStr">
         <is>
-          <t>2019-03-19</t>
+          <t>2019-05-10</t>
         </is>
       </c>
       <c r="AB12" t="inlineStr">
@@ -2105,7 +2099,7 @@
     </row>
     <row r="13">
       <c r="A13" t="n">
-        <v>76465524</v>
+        <v>76755409</v>
       </c>
       <c r="B13" t="n">
         <v>96334</v>
@@ -2140,12 +2134,12 @@
       </c>
       <c r="I13" t="inlineStr">
         <is>
-          <t>25</t>
+          <t>50</t>
         </is>
       </c>
       <c r="J13" t="inlineStr">
         <is>
-          <t>stjälkar/strån/skott</t>
+          <t>plantor/tuvor</t>
         </is>
       </c>
       <c r="K13" t="inlineStr">
@@ -2161,10 +2155,10 @@
         </is>
       </c>
       <c r="Q13" t="n">
-        <v>408058.8086462545</v>
+        <v>407889.8787736146</v>
       </c>
       <c r="R13" t="n">
-        <v>6285491.770240182</v>
+        <v>6285641.533556095</v>
       </c>
       <c r="S13" t="n">
         <v>5</v>
@@ -2191,7 +2185,7 @@
       </c>
       <c r="Y13" t="inlineStr">
         <is>
-          <t>2019-03-19</t>
+          <t>2019-04-02</t>
         </is>
       </c>
       <c r="Z13" t="inlineStr">
@@ -2201,7 +2195,7 @@
       </c>
       <c r="AA13" t="inlineStr">
         <is>
-          <t>2019-03-19</t>
+          <t>2019-04-02</t>
         </is>
       </c>
       <c r="AB13" t="inlineStr">
@@ -2234,7 +2228,7 @@
     </row>
     <row r="14">
       <c r="A14" t="n">
-        <v>76465460</v>
+        <v>107045898</v>
       </c>
       <c r="B14" t="n">
         <v>96334</v>
@@ -2269,12 +2263,12 @@
       </c>
       <c r="I14" t="inlineStr">
         <is>
-          <t>100</t>
+          <t>170</t>
         </is>
       </c>
       <c r="J14" t="inlineStr">
         <is>
-          <t>stjälkar/strån/skott</t>
+          <t>plantor/tuvor</t>
         </is>
       </c>
       <c r="K14" t="inlineStr">
@@ -2282,21 +2276,19 @@
           <t>fullt utvecklade blad</t>
         </is>
       </c>
-      <c r="L14" t="inlineStr"/>
-      <c r="N14" t="inlineStr"/>
       <c r="P14" t="inlineStr">
         <is>
-          <t>skärseryd, Sm</t>
+          <t>Skärseryd, Sm</t>
         </is>
       </c>
       <c r="Q14" t="n">
-        <v>408044.7251403119</v>
+        <v>407899.1432886171</v>
       </c>
       <c r="R14" t="n">
-        <v>6285401.476327997</v>
+        <v>6285637.486604357</v>
       </c>
       <c r="S14" t="n">
-        <v>5</v>
+        <v>30</v>
       </c>
       <c r="T14" t="inlineStr">
         <is>
@@ -2318,9 +2310,14 @@
           <t>Torpa</t>
         </is>
       </c>
+      <c r="X14" t="inlineStr">
+        <is>
+          <t>G-Lju-1513</t>
+        </is>
+      </c>
       <c r="Y14" t="inlineStr">
         <is>
-          <t>2019-03-19</t>
+          <t>2019-04-02</t>
         </is>
       </c>
       <c r="Z14" t="inlineStr">
@@ -2330,7 +2327,7 @@
       </c>
       <c r="AA14" t="inlineStr">
         <is>
-          <t>2019-03-19</t>
+          <t>2019-04-02</t>
         </is>
       </c>
       <c r="AB14" t="inlineStr">
@@ -2344,14 +2341,13 @@
       <c r="AE14" t="b">
         <v>0</v>
       </c>
-      <c r="AF14" t="inlineStr"/>
       <c r="AG14" t="b">
         <v>0</v>
       </c>
       <c r="AT14" t="inlineStr"/>
       <c r="AW14" t="inlineStr">
         <is>
-          <t>per taube</t>
+          <t>Sofia Lund</t>
         </is>
       </c>
       <c r="AX14" t="inlineStr">
@@ -2359,11 +2355,15 @@
           <t>per taube</t>
         </is>
       </c>
-      <c r="AY14" t="inlineStr"/>
+      <c r="AY14" t="inlineStr">
+        <is>
+          <t>Floraväkteri Sverige</t>
+        </is>
+      </c>
     </row>
     <row r="15">
       <c r="A15" t="n">
-        <v>76465717</v>
+        <v>76465590</v>
       </c>
       <c r="B15" t="n">
         <v>96334</v>
@@ -2398,7 +2398,7 @@
       </c>
       <c r="I15" t="inlineStr">
         <is>
-          <t>20</t>
+          <t>150</t>
         </is>
       </c>
       <c r="J15" t="inlineStr">
@@ -2419,10 +2419,10 @@
         </is>
       </c>
       <c r="Q15" t="n">
-        <v>408145.906391738</v>
+        <v>408046.0822250342</v>
       </c>
       <c r="R15" t="n">
-        <v>6285398.711090717</v>
+        <v>6285538.722391712</v>
       </c>
       <c r="S15" t="n">
         <v>5</v>
@@ -2492,7 +2492,7 @@
     </row>
     <row r="16">
       <c r="A16" t="n">
-        <v>76465590</v>
+        <v>76465614</v>
       </c>
       <c r="B16" t="n">
         <v>96334</v>
@@ -2527,7 +2527,7 @@
       </c>
       <c r="I16" t="inlineStr">
         <is>
-          <t>150</t>
+          <t>100</t>
         </is>
       </c>
       <c r="J16" t="inlineStr">
@@ -2548,10 +2548,10 @@
         </is>
       </c>
       <c r="Q16" t="n">
-        <v>408046.0822250342</v>
+        <v>408198.4315054848</v>
       </c>
       <c r="R16" t="n">
-        <v>6285538.722391712</v>
+        <v>6285435.450150408</v>
       </c>
       <c r="S16" t="n">
         <v>5</v>
@@ -2621,7 +2621,7 @@
     </row>
     <row r="17">
       <c r="A17" t="n">
-        <v>76465614</v>
+        <v>76465597</v>
       </c>
       <c r="B17" t="n">
         <v>96334</v>
@@ -2656,7 +2656,7 @@
       </c>
       <c r="I17" t="inlineStr">
         <is>
-          <t>100</t>
+          <t>150</t>
         </is>
       </c>
       <c r="J17" t="inlineStr">
@@ -2677,10 +2677,10 @@
         </is>
       </c>
       <c r="Q17" t="n">
-        <v>408198.4315054848</v>
+        <v>408141.4843590338</v>
       </c>
       <c r="R17" t="n">
-        <v>6285435.450150408</v>
+        <v>6285523.454436843</v>
       </c>
       <c r="S17" t="n">
         <v>5</v>
